--- a/team_specific_matrix/Washington St._A.xlsx
+++ b/team_specific_matrix/Washington St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1762114537444934</v>
+        <v>0.176056338028169</v>
       </c>
       <c r="C2">
-        <v>0.5594713656387665</v>
+        <v>0.5492957746478874</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00881057268722467</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.118942731277533</v>
+        <v>0.1232394366197183</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1365638766519824</v>
+        <v>0.1373239436619718</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0303030303030303</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03787878787878788</v>
+        <v>0.04968944099378882</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7575757575757576</v>
+        <v>0.7453416149068323</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1742424242424243</v>
+        <v>0.1801242236024845</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7142857142857143</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2857142857142857</v>
+        <v>0.2978723404255319</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1079545454545455</v>
+        <v>0.1159420289855072</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05113636363636364</v>
+        <v>0.05314009661835749</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2670454545454545</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005681818181818182</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1647727272727273</v>
+        <v>0.178743961352657</v>
       </c>
       <c r="R6">
-        <v>0.08522727272727272</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S6">
-        <v>0.3181818181818182</v>
+        <v>0.3140096618357488</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1027397260273973</v>
+        <v>0.1049723756906077</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00684931506849315</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0547945205479452</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1780821917808219</v>
+        <v>0.1657458563535912</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0136986301369863</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2054794520547945</v>
+        <v>0.1823204419889503</v>
       </c>
       <c r="R7">
-        <v>0.06164383561643835</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="S7">
-        <v>0.3767123287671233</v>
+        <v>0.3701657458563536</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08035714285714286</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01785714285714286</v>
+        <v>0.0175</v>
       </c>
       <c r="E8">
-        <v>0.002976190476190476</v>
+        <v>0.0025</v>
       </c>
       <c r="F8">
-        <v>0.05357142857142857</v>
+        <v>0.055</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.130952380952381</v>
+        <v>0.125</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01488095238095238</v>
+        <v>0.02</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2291666666666667</v>
+        <v>0.225</v>
       </c>
       <c r="R8">
-        <v>0.09226190476190477</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="S8">
-        <v>0.3779761904761905</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1037037037037037</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03703703703703703</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="E9">
-        <v>0.007407407407407408</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="F9">
-        <v>0.05185185185185185</v>
+        <v>0.04605263157894737</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1037037037037037</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04444444444444445</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.237037037037037</v>
+        <v>0.2302631578947368</v>
       </c>
       <c r="R9">
-        <v>0.0962962962962963</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="S9">
-        <v>0.3185185185185185</v>
+        <v>0.3486842105263158</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1068334937439846</v>
+        <v>0.1122778675282714</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02791145332050048</v>
+        <v>0.02584814216478191</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0008077544426494346</v>
       </c>
       <c r="F10">
-        <v>0.07988450433108758</v>
+        <v>0.07996768982229402</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1193455245428297</v>
+        <v>0.1211631663974152</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.008662175168431183</v>
+        <v>0.01130856219709208</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.231953801732435</v>
+        <v>0.2374798061389338</v>
       </c>
       <c r="R10">
-        <v>0.0741097208854668</v>
+        <v>0.07189014539579967</v>
       </c>
       <c r="S10">
-        <v>0.3512993262752647</v>
+        <v>0.3392568659127625</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.119815668202765</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07373271889400922</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="K11">
-        <v>0.1474654377880184</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L11">
-        <v>0.6497695852534562</v>
+        <v>0.6407407407407407</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009216589861751152</v>
+        <v>0.01481481481481482</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6891891891891891</v>
+        <v>0.7032967032967034</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2567567567567567</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0472972972972973</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006756756756756757</v>
+        <v>0.01098901098901099</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7333333333333333</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06666666666666667</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005555555555555556</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.15</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="I15">
-        <v>0.06666666666666667</v>
+        <v>0.0639269406392694</v>
       </c>
       <c r="J15">
-        <v>0.3888888888888889</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="K15">
-        <v>0.08333333333333333</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02222222222222222</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07777777777777778</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2055555555555555</v>
+        <v>0.2328767123287671</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,46 +1336,46 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006666666666666667</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.18</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="I16">
-        <v>0.09333333333333334</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="J16">
-        <v>0.3733333333333334</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="K16">
+        <v>0.1555555555555556</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0.06</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0.12</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02211302211302211</v>
+        <v>0.02268041237113402</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.199017199017199</v>
+        <v>0.1938144329896907</v>
       </c>
       <c r="I17">
-        <v>0.0687960687960688</v>
+        <v>0.06804123711340206</v>
       </c>
       <c r="J17">
-        <v>0.4471744471744472</v>
+        <v>0.4494845360824742</v>
       </c>
       <c r="K17">
-        <v>0.07862407862407862</v>
+        <v>0.08659793814432989</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0171990171990172</v>
+        <v>0.01443298969072165</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05896805896805897</v>
+        <v>0.05567010309278351</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1081081081081081</v>
+        <v>0.1092783505154639</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03496503496503497</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1538461538461539</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="I18">
-        <v>0.1048951048951049</v>
+        <v>0.1024096385542169</v>
       </c>
       <c r="J18">
-        <v>0.4405594405594406</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="K18">
-        <v>0.06993006993006994</v>
+        <v>0.06626506024096386</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01398601398601399</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05594405594405594</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1258741258741259</v>
+        <v>0.1144578313253012</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01637554585152838</v>
+        <v>0.01463860933211345</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1997816593886463</v>
+        <v>0.1957913998170174</v>
       </c>
       <c r="I19">
-        <v>0.07205240174672489</v>
+        <v>0.0686184812442818</v>
       </c>
       <c r="J19">
-        <v>0.3853711790393013</v>
+        <v>0.3915827996340348</v>
       </c>
       <c r="K19">
-        <v>0.1189956331877729</v>
+        <v>0.1216834400731931</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01419213973799127</v>
+        <v>0.01829826166514181</v>
       </c>
       <c r="N19">
-        <v>0.001091703056768559</v>
+        <v>0.001829826166514181</v>
       </c>
       <c r="O19">
-        <v>0.08842794759825327</v>
+        <v>0.08417200365965233</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1037117903930131</v>
+        <v>0.1033851784080512</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Washington St._A.xlsx
+++ b/team_specific_matrix/Washington St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.176056338028169</v>
+        <v>0.1766666666666667</v>
       </c>
       <c r="C2">
-        <v>0.5492957746478874</v>
+        <v>0.55</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01408450704225352</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1232394366197183</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1373239436619718</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="C3">
-        <v>0.02484472049689441</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04968944099378882</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7453416149068323</v>
+        <v>0.7485380116959064</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1801242236024845</v>
+        <v>0.1695906432748538</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7021276595744681</v>
+        <v>0.7</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2978723404255319</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1159420289855072</v>
+        <v>0.1116071428571429</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05314009661835749</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2463768115942029</v>
+        <v>0.2455357142857143</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004830917874396135</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.178743961352657</v>
+        <v>0.1919642857142857</v>
       </c>
       <c r="R6">
-        <v>0.08695652173913043</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="S6">
-        <v>0.3140096618357488</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1049723756906077</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01104972375690608</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06629834254143646</v>
+        <v>0.0663265306122449</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1657458563535912</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03314917127071823</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1823204419889503</v>
+        <v>0.173469387755102</v>
       </c>
       <c r="R7">
-        <v>0.06629834254143646</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="S7">
-        <v>0.3701657458563536</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08500000000000001</v>
+        <v>0.08126410835214447</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0175</v>
+        <v>0.01805869074492099</v>
       </c>
       <c r="E8">
-        <v>0.0025</v>
+        <v>0.002257336343115124</v>
       </c>
       <c r="F8">
-        <v>0.055</v>
+        <v>0.05869074492099323</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.125</v>
+        <v>0.1309255079006772</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02</v>
+        <v>0.01805869074492099</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.225</v>
+        <v>0.2234762979683973</v>
       </c>
       <c r="R8">
-        <v>0.08500000000000001</v>
+        <v>0.08126410835214447</v>
       </c>
       <c r="S8">
-        <v>0.385</v>
+        <v>0.3860045146726862</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09868421052631579</v>
+        <v>0.09375</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03289473684210526</v>
+        <v>0.03125</v>
       </c>
       <c r="E9">
-        <v>0.006578947368421052</v>
+        <v>0.00625</v>
       </c>
       <c r="F9">
-        <v>0.04605263157894737</v>
+        <v>0.04375</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09868421052631579</v>
+        <v>0.10625</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03947368421052631</v>
+        <v>0.0375</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2302631578947368</v>
+        <v>0.2375</v>
       </c>
       <c r="R9">
-        <v>0.09868421052631579</v>
+        <v>0.1</v>
       </c>
       <c r="S9">
-        <v>0.3486842105263158</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1122778675282714</v>
+        <v>0.1115326251896813</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02584814216478191</v>
+        <v>0.02579666160849772</v>
       </c>
       <c r="E10">
-        <v>0.0008077544426494346</v>
+        <v>0.0007587253414264037</v>
       </c>
       <c r="F10">
-        <v>0.07996768982229402</v>
+        <v>0.07890743550834597</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1211631663974152</v>
+        <v>0.1206373292867982</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01130856219709208</v>
+        <v>0.01138088012139605</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2374798061389338</v>
+        <v>0.2329286798179059</v>
       </c>
       <c r="R10">
-        <v>0.07189014539579967</v>
+        <v>0.07511380880121396</v>
       </c>
       <c r="S10">
-        <v>0.3392568659127625</v>
+        <v>0.3429438543247345</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1185185185185185</v>
+        <v>0.1275862068965517</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07777777777777778</v>
+        <v>0.07241379310344828</v>
       </c>
       <c r="K11">
-        <v>0.1481481481481481</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="L11">
-        <v>0.6407407407407407</v>
+        <v>0.6310344827586207</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01481481481481482</v>
+        <v>0.01379310344827586</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7032967032967034</v>
+        <v>0.703125</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2417582417582418</v>
+        <v>0.2447916666666667</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04395604395604396</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01098901098901099</v>
+        <v>0.01041666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7105263157894737</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2368421052631579</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05263157894736842</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0045662100456621</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1506849315068493</v>
+        <v>0.1645021645021645</v>
       </c>
       <c r="I15">
-        <v>0.0639269406392694</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="J15">
-        <v>0.3698630136986301</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K15">
-        <v>0.0776255707762557</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0182648401826484</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0821917808219178</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2328767123287671</v>
+        <v>0.2294372294372294</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005555555555555556</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1888888888888889</v>
+        <v>0.1813471502590674</v>
       </c>
       <c r="I16">
-        <v>0.07777777777777778</v>
+        <v>0.08290155440414508</v>
       </c>
       <c r="J16">
-        <v>0.3555555555555556</v>
+        <v>0.3575129533678756</v>
       </c>
       <c r="K16">
-        <v>0.1555555555555556</v>
+        <v>0.155440414507772</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02777777777777778</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05555555555555555</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1333333333333333</v>
+        <v>0.1347150259067358</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02268041237113402</v>
+        <v>0.02321083172147002</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1938144329896907</v>
+        <v>0.1992263056092843</v>
       </c>
       <c r="I17">
-        <v>0.06804123711340206</v>
+        <v>0.06769825918762089</v>
       </c>
       <c r="J17">
-        <v>0.4494845360824742</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="K17">
-        <v>0.08659793814432989</v>
+        <v>0.08704061895551257</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01443298969072165</v>
+        <v>0.01547388781431335</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05567010309278351</v>
+        <v>0.05222437137330754</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1092783505154639</v>
+        <v>0.1083172147001934</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03012048192771084</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1686746987951807</v>
+        <v>0.1675977653631285</v>
       </c>
       <c r="I18">
-        <v>0.1024096385542169</v>
+        <v>0.09497206703910614</v>
       </c>
       <c r="J18">
-        <v>0.427710843373494</v>
+        <v>0.4245810055865922</v>
       </c>
       <c r="K18">
-        <v>0.06626506024096386</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01807228915662651</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07228915662650602</v>
+        <v>0.0782122905027933</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1144578313253012</v>
+        <v>0.111731843575419</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01463860933211345</v>
+        <v>0.01443123938879457</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1957913998170174</v>
+        <v>0.2037351443123939</v>
       </c>
       <c r="I19">
-        <v>0.0686184812442818</v>
+        <v>0.06706281833616298</v>
       </c>
       <c r="J19">
-        <v>0.3915827996340348</v>
+        <v>0.3853989813242784</v>
       </c>
       <c r="K19">
-        <v>0.1216834400731931</v>
+        <v>0.1188455008488964</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01829826166514181</v>
+        <v>0.02037351443123939</v>
       </c>
       <c r="N19">
-        <v>0.001829826166514181</v>
+        <v>0.001697792869269949</v>
       </c>
       <c r="O19">
-        <v>0.08417200365965233</v>
+        <v>0.0831918505942275</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1033851784080512</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Washington St._A.xlsx
+++ b/team_specific_matrix/Washington St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1766666666666667</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="C2">
-        <v>0.55</v>
+        <v>0.551829268292683</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01333333333333333</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1266666666666667</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1333333333333333</v>
+        <v>0.1310975609756098</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005847953216374269</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C3">
-        <v>0.02923976608187134</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04678362573099415</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7485380116959064</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1695906432748538</v>
+        <v>0.1702127659574468</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3</v>
+        <v>0.3454545454545455</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1116071428571429</v>
+        <v>0.1033057851239669</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05357142857142857</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2455357142857143</v>
+        <v>0.2479338842975207</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004464285714285714</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1919642857142857</v>
+        <v>0.1900826446280992</v>
       </c>
       <c r="R6">
-        <v>0.08035714285714286</v>
+        <v>0.07851239669421488</v>
       </c>
       <c r="S6">
-        <v>0.3125</v>
+        <v>0.3181818181818182</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1020408163265306</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01020408163265306</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0663265306122449</v>
+        <v>0.06341463414634146</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.163265306122449</v>
+        <v>0.1560975609756098</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03061224489795918</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.173469387755102</v>
+        <v>0.175609756097561</v>
       </c>
       <c r="R7">
-        <v>0.06122448979591837</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="S7">
-        <v>0.3928571428571428</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08126410835214447</v>
+        <v>0.08713692946058091</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01805869074492099</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="E8">
-        <v>0.002257336343115124</v>
+        <v>0.002074688796680498</v>
       </c>
       <c r="F8">
-        <v>0.05869074492099323</v>
+        <v>0.05601659751037345</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1309255079006772</v>
+        <v>0.1369294605809129</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01805869074492099</v>
+        <v>0.01867219917012448</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2234762979683973</v>
+        <v>0.2157676348547718</v>
       </c>
       <c r="R8">
-        <v>0.08126410835214447</v>
+        <v>0.07883817427385892</v>
       </c>
       <c r="S8">
-        <v>0.3860045146726862</v>
+        <v>0.3879668049792531</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09375</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03125</v>
+        <v>0.02906976744186046</v>
       </c>
       <c r="E9">
-        <v>0.00625</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="F9">
-        <v>0.04375</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.10625</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0375</v>
+        <v>0.04069767441860465</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2375</v>
+        <v>0.2267441860465116</v>
       </c>
       <c r="R9">
-        <v>0.1</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="S9">
-        <v>0.34375</v>
+        <v>0.3488372093023256</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1115326251896813</v>
+        <v>0.1136203246294989</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02579666160849772</v>
+        <v>0.02681721947776994</v>
       </c>
       <c r="E10">
-        <v>0.0007587253414264037</v>
+        <v>0.0007057163020465773</v>
       </c>
       <c r="F10">
-        <v>0.07890743550834597</v>
+        <v>0.08045165843330981</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1206373292867982</v>
+        <v>0.1263232180663373</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01138088012139605</v>
+        <v>0.01129146083274524</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2329286798179059</v>
+        <v>0.2335920959774171</v>
       </c>
       <c r="R10">
-        <v>0.07511380880121396</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="S10">
-        <v>0.3429438543247345</v>
+        <v>0.3338038108680311</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1275862068965517</v>
+        <v>0.1213114754098361</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07241379310344828</v>
+        <v>0.07213114754098361</v>
       </c>
       <c r="K11">
-        <v>0.1551724137931035</v>
+        <v>0.1508196721311476</v>
       </c>
       <c r="L11">
-        <v>0.6310344827586207</v>
+        <v>0.639344262295082</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01379310344827586</v>
+        <v>0.01639344262295082</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.703125</v>
+        <v>0.7009803921568627</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2447916666666667</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04166666666666666</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01041666666666667</v>
+        <v>0.009803921568627451</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6976744186046512</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2558139534883721</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04651162790697674</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.008658008658008658</v>
+        <v>0.008097165991902834</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1645021645021645</v>
+        <v>0.1740890688259109</v>
       </c>
       <c r="I15">
-        <v>0.06060606060606061</v>
+        <v>0.06072874493927125</v>
       </c>
       <c r="J15">
-        <v>0.3636363636363636</v>
+        <v>0.3562753036437247</v>
       </c>
       <c r="K15">
-        <v>0.07792207792207792</v>
+        <v>0.08097165991902834</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01731601731601732</v>
+        <v>0.01619433198380567</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07792207792207792</v>
+        <v>0.08097165991902834</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2294372294372294</v>
+        <v>0.2226720647773279</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005181347150259068</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1813471502590674</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="I16">
-        <v>0.08290155440414508</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="J16">
-        <v>0.3575129533678756</v>
+        <v>0.3605769230769231</v>
       </c>
       <c r="K16">
-        <v>0.155440414507772</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02590673575129534</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05699481865284974</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1347150259067358</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02321083172147002</v>
+        <v>0.02355072463768116</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1992263056092843</v>
+        <v>0.197463768115942</v>
       </c>
       <c r="I17">
-        <v>0.06769825918762089</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="J17">
-        <v>0.4468085106382979</v>
+        <v>0.447463768115942</v>
       </c>
       <c r="K17">
-        <v>0.08704061895551257</v>
+        <v>0.09239130434782608</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01547388781431335</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05222437137330754</v>
+        <v>0.05072463768115942</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1083172147001934</v>
+        <v>0.108695652173913</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0335195530726257</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1675977653631285</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="I18">
-        <v>0.09497206703910614</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="J18">
-        <v>0.4245810055865922</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K18">
-        <v>0.07262569832402235</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01675977653631285</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0782122905027933</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.111731843575419</v>
+        <v>0.1058201058201058</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01443123938879457</v>
+        <v>0.01436552274541101</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2037351443123939</v>
+        <v>0.209098164405427</v>
       </c>
       <c r="I19">
-        <v>0.06706281833616298</v>
+        <v>0.06943335993615324</v>
       </c>
       <c r="J19">
-        <v>0.3853989813242784</v>
+        <v>0.3854748603351955</v>
       </c>
       <c r="K19">
-        <v>0.1188455008488964</v>
+        <v>0.1133280127693535</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02037351443123939</v>
+        <v>0.01915403032721468</v>
       </c>
       <c r="N19">
-        <v>0.001697792869269949</v>
+        <v>0.001596169193934557</v>
       </c>
       <c r="O19">
-        <v>0.0831918505942275</v>
+        <v>0.08379888268156424</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1052631578947368</v>
+        <v>0.1037509976057462</v>
       </c>
     </row>
   </sheetData>
